--- a/biology/Zoologie/Apterygota/Apterygota.xlsx
+++ b/biology/Zoologie/Apterygota/Apterygota.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Aptérygotes, ou Apterygota, sont une ancienne sous-classe d'insectes aptères.
-Les Apterygota sont considérés comme un grade par certains entomologistes[2].
+Les Apterygota sont considérés comme un grade par certains entomologistes.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Ancienne classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle était divisée en 4 ordres selon Roth (1974)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle était divisée en 4 ordres selon Roth (1974) :
 ordre des Protoures : Protura ;
 ordre des Collemboles : Collembola ;
 ordre des Diploures : Diplura ;
@@ -548,7 +562,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les aptérygotes étaient caractérisés par :
 leur petite taille ;
@@ -581,7 +597,9 @@
           <t>Classification phylogénétique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Phylogénétiquement, les aptérygotes ne constituent pas un groupe naturel (monophylétique), mais para- ou polyphylétique, au sein des hexapodes, voire des pancrustacés.
 Les liens entre entognathes : diploures, protoures et collemboles, ne sont pas élucidés (classiquement, les ellipoures réunissaient les deux derniers). La monophylie des hexapodes, groupe réunissant ces trois taxons aux insectes proprement dits, ou ectognathes, est elle-même débattue.
